--- a/biology/Botanique/Xyris_juncea/Xyris_juncea.xlsx
+++ b/biology/Botanique/Xyris_juncea/Xyris_juncea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xyris juncea est une espèce de la famille des Xyridaceae. Il est couramment dénommé l’œil jaune nain. C'est une espèce de plante à fleurs que l'on trouve dans le Nord et l'Est de l'Australie. Elle est répandue dans les zones marécageuses.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une plante herbacée touffue, qui peut atteindre 30 cm de haut. C'est l'une des nombreuses plantes publiées pour la première fois par Robert Brown avec le type d'espèce connu sous le nom de (J.) v.v. Apparaissant dans son Prodromus Florae Novae Hollandiae et Insulae Van Diemen en 1810[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante herbacée touffue, qui peut atteindre 30 cm de haut. C'est l'une des nombreuses plantes publiées pour la première fois par Robert Brown avec le type d'espèce connu sous le nom de (J.) v.v. Apparaissant dans son Prodromus Florae Novae Hollandiae et Insulae Van Diemen en 1810,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (27 décembre 2023)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 décembre 2023) :
 Xyris juncea var. juncea
 Xyris juncea var. tenuior R.Br. ex Rendle, 1899</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xyris juncea R.Br.[3].
-L'épithète spécifique juncea est dérivée du latin, signifiant une ressemblance avec une sedge (Cyperaceae)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xyris juncea R.Br..
+L'épithète spécifique juncea est dérivée du latin, signifiant une ressemblance avec une sedge (Cyperaceae).
 </t>
         </is>
       </c>
